--- a/UtilityScripts/PICK_NRG/inbox_files/database.xlsx
+++ b/UtilityScripts/PICK_NRG/inbox_files/database.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMALYGIN\Downloads\Regression-master (5)\Regression-master\UtilityScripts\PICK_NRG\inbox_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6F24A0-B76A-4929-9314-A0402F018350}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="2295" yWindow="3210" windowWidth="26505" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="111">
   <si>
     <t>ts</t>
   </si>
@@ -352,8 +358,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,6 +435,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -475,7 +489,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -507,9 +521,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -541,6 +573,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -716,14 +766,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A52" sqref="A2:XFD52"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -746,7 +798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -769,7 +821,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -792,7 +844,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -815,7 +867,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -838,7 +890,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -861,7 +913,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -881,7 +933,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -904,7 +956,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -927,7 +979,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -950,7 +1002,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -973,7 +1025,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -996,7 +1048,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1019,7 +1071,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1042,7 +1094,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1065,7 +1117,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1088,7 +1140,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1111,7 +1163,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1131,7 +1183,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1154,7 +1206,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1174,7 +1226,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1194,7 +1246,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1214,7 +1266,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1234,7 +1286,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1254,7 +1306,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1274,7 +1326,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1297,7 +1349,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1320,7 +1372,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1343,7 +1395,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1363,7 +1415,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -1386,7 +1438,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -1406,7 +1458,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1426,7 +1478,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1449,7 +1501,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1469,7 +1521,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -1492,7 +1544,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -1515,7 +1567,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -1535,7 +1587,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -1555,7 +1607,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -1578,7 +1630,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -1598,7 +1650,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -1621,7 +1673,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -1641,7 +1693,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -1661,7 +1713,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -1684,7 +1736,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -1704,7 +1756,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -1724,7 +1776,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -1747,7 +1799,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -1767,7 +1819,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -1787,7 +1839,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -1810,7 +1862,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -1830,7 +1882,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -1850,1214 +1902,59 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
-      <c r="A53" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" t="s">
-        <v>64</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E53">
-        <v>60602</v>
-      </c>
-      <c r="F53" t="s">
-        <v>72</v>
-      </c>
-      <c r="G53" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" t="s">
-        <v>64</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E54">
-        <v>60602</v>
-      </c>
-      <c r="F54" t="s">
-        <v>72</v>
-      </c>
-      <c r="G54" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" t="s">
-        <v>58</v>
-      </c>
-      <c r="C55" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E55">
-        <v>60933</v>
-      </c>
-      <c r="F55" t="s">
-        <v>73</v>
-      </c>
-      <c r="G55" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56" t="s">
-        <v>64</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E56">
-        <v>60933</v>
-      </c>
-      <c r="F56" t="s">
-        <v>73</v>
-      </c>
-      <c r="G56" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57" t="s">
-        <v>59</v>
-      </c>
-      <c r="C57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E57">
-        <v>15243</v>
-      </c>
-      <c r="F57" t="s">
-        <v>74</v>
-      </c>
-      <c r="G57" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" t="s">
-        <v>65</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E58">
-        <v>15243</v>
-      </c>
-      <c r="F58" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" t="s">
-        <v>65</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E59">
-        <v>19104</v>
-      </c>
-      <c r="F59" t="s">
-        <v>76</v>
-      </c>
-      <c r="G59" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" t="s">
-        <v>14</v>
-      </c>
-      <c r="B60" t="s">
-        <v>59</v>
-      </c>
-      <c r="C60" t="s">
-        <v>65</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E60">
-        <v>19104</v>
-      </c>
-      <c r="F60" t="s">
-        <v>76</v>
-      </c>
-      <c r="G60" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61" t="s">
-        <v>59</v>
-      </c>
-      <c r="C61" t="s">
-        <v>65</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E61">
-        <v>17344</v>
-      </c>
-      <c r="F61" t="s">
-        <v>77</v>
-      </c>
-      <c r="G61" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" t="s">
-        <v>16</v>
-      </c>
-      <c r="B62" t="s">
-        <v>59</v>
-      </c>
-      <c r="C62" t="s">
-        <v>65</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E62">
-        <v>17344</v>
-      </c>
-      <c r="F62" t="s">
-        <v>77</v>
-      </c>
-      <c r="G62" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" t="s">
-        <v>17</v>
-      </c>
-      <c r="B63" t="s">
-        <v>59</v>
-      </c>
-      <c r="C63" t="s">
-        <v>65</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E63">
-        <v>16130</v>
-      </c>
-      <c r="F63" t="s">
-        <v>78</v>
-      </c>
-      <c r="G63" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" t="s">
-        <v>18</v>
-      </c>
-      <c r="B64" t="s">
-        <v>59</v>
-      </c>
-      <c r="C64" t="s">
-        <v>65</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E64">
-        <v>16130</v>
-      </c>
-      <c r="F64" t="s">
-        <v>78</v>
-      </c>
-      <c r="G64" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" t="s">
-        <v>19</v>
-      </c>
-      <c r="B65" t="s">
-        <v>59</v>
-      </c>
-      <c r="C65" t="s">
-        <v>65</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E65">
-        <v>15765</v>
-      </c>
-      <c r="F65" t="s">
-        <v>79</v>
-      </c>
-      <c r="G65" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" t="s">
-        <v>20</v>
-      </c>
-      <c r="B66" t="s">
-        <v>59</v>
-      </c>
-      <c r="C66" t="s">
-        <v>65</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E66">
-        <v>15765</v>
-      </c>
-      <c r="F66" t="s">
-        <v>79</v>
-      </c>
-      <c r="G66" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" t="s">
-        <v>21</v>
-      </c>
-      <c r="B67" t="s">
-        <v>59</v>
-      </c>
-      <c r="C67" t="s">
-        <v>65</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E67">
-        <v>18073</v>
-      </c>
-      <c r="F67" t="s">
-        <v>77</v>
-      </c>
-      <c r="G67" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" t="s">
-        <v>22</v>
-      </c>
-      <c r="B68" t="s">
-        <v>59</v>
-      </c>
-      <c r="C68" t="s">
-        <v>65</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E68">
-        <v>18073</v>
-      </c>
-      <c r="F68" t="s">
-        <v>76</v>
-      </c>
-      <c r="G68" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" t="s">
-        <v>23</v>
-      </c>
-      <c r="B69" t="s">
-        <v>59</v>
-      </c>
-      <c r="C69" t="s">
-        <v>65</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E69">
-        <v>18073</v>
-      </c>
-      <c r="F69" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" t="s">
-        <v>24</v>
-      </c>
-      <c r="B70" t="s">
-        <v>59</v>
-      </c>
-      <c r="C70" t="s">
-        <v>65</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E70">
-        <v>15243</v>
-      </c>
-      <c r="F70" t="s">
-        <v>74</v>
-      </c>
-      <c r="G70" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" t="s">
-        <v>25</v>
-      </c>
-      <c r="B71" t="s">
-        <v>59</v>
-      </c>
-      <c r="C71" t="s">
-        <v>65</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E71">
-        <v>15243</v>
-      </c>
-      <c r="F71" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" t="s">
-        <v>26</v>
-      </c>
-      <c r="B72" t="s">
-        <v>60</v>
-      </c>
-      <c r="C72" t="s">
-        <v>66</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E72">
-        <v>2126</v>
-      </c>
-      <c r="F72" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" t="s">
-        <v>27</v>
-      </c>
-      <c r="B73" t="s">
-        <v>60</v>
-      </c>
-      <c r="C73" t="s">
-        <v>66</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E73">
-        <v>1060</v>
-      </c>
-      <c r="F73" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" t="s">
-        <v>28</v>
-      </c>
-      <c r="B74" t="s">
-        <v>60</v>
-      </c>
-      <c r="C74" t="s">
-        <v>66</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E74">
-        <v>1060</v>
-      </c>
-      <c r="F74" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" t="s">
-        <v>29</v>
-      </c>
-      <c r="B75" t="s">
-        <v>60</v>
-      </c>
-      <c r="C75" t="s">
-        <v>66</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E75">
-        <v>1060</v>
-      </c>
-      <c r="F75" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" t="s">
-        <v>30</v>
-      </c>
-      <c r="B76" t="s">
-        <v>60</v>
-      </c>
-      <c r="C76" t="s">
-        <v>66</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E76">
-        <v>1060</v>
-      </c>
-      <c r="F76" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" t="s">
-        <v>31</v>
-      </c>
-      <c r="B77" t="s">
-        <v>61</v>
-      </c>
-      <c r="C77" t="s">
-        <v>67</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E77">
-        <v>20815</v>
-      </c>
-      <c r="F77" t="s">
-        <v>84</v>
-      </c>
-      <c r="G77" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" t="s">
-        <v>32</v>
-      </c>
-      <c r="B78" t="s">
-        <v>61</v>
-      </c>
-      <c r="C78" t="s">
-        <v>67</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E78">
-        <v>20815</v>
-      </c>
-      <c r="F78" t="s">
-        <v>84</v>
-      </c>
-      <c r="G78" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" t="s">
-        <v>33</v>
-      </c>
-      <c r="B79" t="s">
-        <v>61</v>
-      </c>
-      <c r="C79" t="s">
-        <v>67</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E79">
-        <v>21071</v>
-      </c>
-      <c r="F79" t="s">
-        <v>85</v>
-      </c>
-      <c r="G79" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" t="s">
-        <v>34</v>
-      </c>
-      <c r="B80" t="s">
-        <v>61</v>
-      </c>
-      <c r="C80" t="s">
-        <v>67</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E80">
-        <v>21071</v>
-      </c>
-      <c r="F80" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" t="s">
-        <v>35</v>
-      </c>
-      <c r="B81" t="s">
-        <v>61</v>
-      </c>
-      <c r="C81" t="s">
-        <v>67</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E81">
-        <v>21071</v>
-      </c>
-      <c r="F81" t="s">
-        <v>85</v>
-      </c>
-      <c r="G81" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" t="s">
-        <v>36</v>
-      </c>
-      <c r="B82" t="s">
-        <v>61</v>
-      </c>
-      <c r="C82" t="s">
-        <v>67</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E82">
-        <v>21071</v>
-      </c>
-      <c r="F82" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" t="s">
-        <v>37</v>
-      </c>
-      <c r="B83" t="s">
-        <v>61</v>
-      </c>
-      <c r="C83" t="s">
-        <v>67</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E83">
-        <v>21620</v>
-      </c>
-      <c r="F83" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" t="s">
-        <v>38</v>
-      </c>
-      <c r="B84" t="s">
-        <v>62</v>
-      </c>
-      <c r="C84" t="s">
-        <v>68</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E84">
-        <v>8550</v>
-      </c>
-      <c r="F84" t="s">
-        <v>88</v>
-      </c>
-      <c r="G84" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" t="s">
-        <v>39</v>
-      </c>
-      <c r="B85" t="s">
-        <v>62</v>
-      </c>
-      <c r="C85" t="s">
-        <v>68</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E85">
-        <v>8550</v>
-      </c>
-      <c r="F85" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" t="s">
-        <v>40</v>
-      </c>
-      <c r="B86" t="s">
-        <v>62</v>
-      </c>
-      <c r="C86" t="s">
-        <v>68</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E86">
-        <v>8540</v>
-      </c>
-      <c r="F86" t="s">
-        <v>89</v>
-      </c>
-      <c r="G86" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" t="s">
-        <v>41</v>
-      </c>
-      <c r="B87" t="s">
-        <v>62</v>
-      </c>
-      <c r="C87" t="s">
-        <v>68</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E87">
-        <v>8540</v>
-      </c>
-      <c r="F87" t="s">
-        <v>89</v>
-      </c>
-      <c r="G87" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" t="s">
-        <v>42</v>
-      </c>
-      <c r="B88" t="s">
-        <v>62</v>
-      </c>
-      <c r="C88" t="s">
-        <v>68</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E88">
-        <v>8201</v>
-      </c>
-      <c r="F88" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" t="s">
-        <v>43</v>
-      </c>
-      <c r="B89" t="s">
-        <v>62</v>
-      </c>
-      <c r="C89" t="s">
-        <v>68</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E89">
-        <v>7495</v>
-      </c>
-      <c r="F89" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" t="s">
-        <v>44</v>
-      </c>
-      <c r="B90" t="s">
-        <v>63</v>
-      </c>
-      <c r="C90" t="s">
-        <v>69</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E90">
-        <v>43016</v>
-      </c>
-      <c r="F90" t="s">
-        <v>92</v>
-      </c>
-      <c r="G90" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" t="s">
-        <v>45</v>
-      </c>
-      <c r="B91" t="s">
-        <v>63</v>
-      </c>
-      <c r="C91" t="s">
-        <v>69</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E91">
-        <v>43016</v>
-      </c>
-      <c r="F91" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" t="s">
-        <v>46</v>
-      </c>
-      <c r="B92" t="s">
-        <v>63</v>
-      </c>
-      <c r="C92" t="s">
-        <v>69</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E92">
-        <v>44122</v>
-      </c>
-      <c r="F92" t="s">
-        <v>93</v>
-      </c>
-      <c r="G92" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" t="s">
-        <v>47</v>
-      </c>
-      <c r="B93" t="s">
-        <v>63</v>
-      </c>
-      <c r="C93" t="s">
-        <v>69</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E93">
-        <v>44122</v>
-      </c>
-      <c r="F93" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" t="s">
-        <v>48</v>
-      </c>
-      <c r="B94" t="s">
-        <v>63</v>
-      </c>
-      <c r="C94" t="s">
-        <v>69</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E94">
-        <v>44122</v>
-      </c>
-      <c r="F94" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" t="s">
-        <v>49</v>
-      </c>
-      <c r="B95" t="s">
-        <v>63</v>
-      </c>
-      <c r="C95" t="s">
-        <v>69</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E95">
-        <v>44122</v>
-      </c>
-      <c r="F95" t="s">
-        <v>93</v>
-      </c>
-      <c r="G95" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" t="s">
-        <v>50</v>
-      </c>
-      <c r="B96" t="s">
-        <v>63</v>
-      </c>
-      <c r="C96" t="s">
-        <v>69</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E96">
-        <v>44122</v>
-      </c>
-      <c r="F96" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" t="s">
-        <v>51</v>
-      </c>
-      <c r="B97" t="s">
-        <v>63</v>
-      </c>
-      <c r="C97" t="s">
-        <v>69</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E97">
-        <v>44122</v>
-      </c>
-      <c r="F97" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" t="s">
-        <v>52</v>
-      </c>
-      <c r="B98" t="s">
-        <v>63</v>
-      </c>
-      <c r="C98" t="s">
-        <v>69</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E98">
-        <v>44122</v>
-      </c>
-      <c r="F98" t="s">
-        <v>93</v>
-      </c>
-      <c r="G98" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" t="s">
-        <v>53</v>
-      </c>
-      <c r="B99" t="s">
-        <v>63</v>
-      </c>
-      <c r="C99" t="s">
-        <v>69</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E99">
-        <v>44122</v>
-      </c>
-      <c r="F99" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" t="s">
-        <v>54</v>
-      </c>
-      <c r="B100" t="s">
-        <v>63</v>
-      </c>
-      <c r="C100" t="s">
-        <v>69</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E100">
-        <v>44122</v>
-      </c>
-      <c r="F100" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" t="s">
-        <v>55</v>
-      </c>
-      <c r="B101" t="s">
-        <v>63</v>
-      </c>
-      <c r="C101" t="s">
-        <v>69</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E101">
-        <v>43605</v>
-      </c>
-      <c r="F101" t="s">
-        <v>96</v>
-      </c>
-      <c r="G101" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" t="s">
-        <v>56</v>
-      </c>
-      <c r="B102" t="s">
-        <v>63</v>
-      </c>
-      <c r="C102" t="s">
-        <v>69</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E102">
-        <v>43605</v>
-      </c>
-      <c r="F102" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" t="s">
-        <v>57</v>
-      </c>
-      <c r="B103" t="s">
-        <v>63</v>
-      </c>
-      <c r="C103" t="s">
-        <v>69</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E103">
-        <v>45034</v>
-      </c>
-      <c r="F103" t="s">
-        <v>97</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="D13" r:id="rId12"/>
-    <hyperlink ref="D14" r:id="rId13"/>
-    <hyperlink ref="D15" r:id="rId14"/>
-    <hyperlink ref="D16" r:id="rId15"/>
-    <hyperlink ref="D17" r:id="rId16"/>
-    <hyperlink ref="D18" r:id="rId17"/>
-    <hyperlink ref="D19" r:id="rId18"/>
-    <hyperlink ref="D20" r:id="rId19"/>
-    <hyperlink ref="D21" r:id="rId20"/>
-    <hyperlink ref="D22" r:id="rId21"/>
-    <hyperlink ref="D23" r:id="rId22"/>
-    <hyperlink ref="D24" r:id="rId23"/>
-    <hyperlink ref="D25" r:id="rId24"/>
-    <hyperlink ref="D26" r:id="rId25"/>
-    <hyperlink ref="D27" r:id="rId26"/>
-    <hyperlink ref="D28" r:id="rId27"/>
-    <hyperlink ref="D29" r:id="rId28"/>
-    <hyperlink ref="D30" r:id="rId29"/>
-    <hyperlink ref="D31" r:id="rId30"/>
-    <hyperlink ref="D32" r:id="rId31"/>
-    <hyperlink ref="D33" r:id="rId32"/>
-    <hyperlink ref="D34" r:id="rId33"/>
-    <hyperlink ref="D35" r:id="rId34"/>
-    <hyperlink ref="D36" r:id="rId35"/>
-    <hyperlink ref="D37" r:id="rId36"/>
-    <hyperlink ref="D38" r:id="rId37"/>
-    <hyperlink ref="D39" r:id="rId38"/>
-    <hyperlink ref="D40" r:id="rId39"/>
-    <hyperlink ref="D41" r:id="rId40"/>
-    <hyperlink ref="D42" r:id="rId41"/>
-    <hyperlink ref="D43" r:id="rId42"/>
-    <hyperlink ref="D44" r:id="rId43"/>
-    <hyperlink ref="D45" r:id="rId44"/>
-    <hyperlink ref="D46" r:id="rId45"/>
-    <hyperlink ref="D47" r:id="rId46"/>
-    <hyperlink ref="D48" r:id="rId47"/>
-    <hyperlink ref="D49" r:id="rId48"/>
-    <hyperlink ref="D50" r:id="rId49"/>
-    <hyperlink ref="D51" r:id="rId50"/>
-    <hyperlink ref="D52" r:id="rId51"/>
-    <hyperlink ref="D53" r:id="rId52"/>
-    <hyperlink ref="D54" r:id="rId53"/>
-    <hyperlink ref="D55" r:id="rId54"/>
-    <hyperlink ref="D56" r:id="rId55"/>
-    <hyperlink ref="D57" r:id="rId56"/>
-    <hyperlink ref="D58" r:id="rId57"/>
-    <hyperlink ref="D59" r:id="rId58"/>
-    <hyperlink ref="D60" r:id="rId59"/>
-    <hyperlink ref="D61" r:id="rId60"/>
-    <hyperlink ref="D62" r:id="rId61"/>
-    <hyperlink ref="D63" r:id="rId62"/>
-    <hyperlink ref="D64" r:id="rId63"/>
-    <hyperlink ref="D65" r:id="rId64"/>
-    <hyperlink ref="D66" r:id="rId65"/>
-    <hyperlink ref="D67" r:id="rId66"/>
-    <hyperlink ref="D68" r:id="rId67"/>
-    <hyperlink ref="D69" r:id="rId68"/>
-    <hyperlink ref="D70" r:id="rId69"/>
-    <hyperlink ref="D71" r:id="rId70"/>
-    <hyperlink ref="D72" r:id="rId71"/>
-    <hyperlink ref="D73" r:id="rId72"/>
-    <hyperlink ref="D74" r:id="rId73"/>
-    <hyperlink ref="D75" r:id="rId74"/>
-    <hyperlink ref="D76" r:id="rId75"/>
-    <hyperlink ref="D77" r:id="rId76"/>
-    <hyperlink ref="D78" r:id="rId77"/>
-    <hyperlink ref="D79" r:id="rId78"/>
-    <hyperlink ref="D80" r:id="rId79"/>
-    <hyperlink ref="D81" r:id="rId80"/>
-    <hyperlink ref="D82" r:id="rId81"/>
-    <hyperlink ref="D83" r:id="rId82"/>
-    <hyperlink ref="D84" r:id="rId83"/>
-    <hyperlink ref="D85" r:id="rId84"/>
-    <hyperlink ref="D86" r:id="rId85"/>
-    <hyperlink ref="D87" r:id="rId86"/>
-    <hyperlink ref="D88" r:id="rId87"/>
-    <hyperlink ref="D89" r:id="rId88"/>
-    <hyperlink ref="D90" r:id="rId89"/>
-    <hyperlink ref="D91" r:id="rId90"/>
-    <hyperlink ref="D92" r:id="rId91"/>
-    <hyperlink ref="D93" r:id="rId92"/>
-    <hyperlink ref="D94" r:id="rId93"/>
-    <hyperlink ref="D95" r:id="rId94"/>
-    <hyperlink ref="D96" r:id="rId95"/>
-    <hyperlink ref="D97" r:id="rId96"/>
-    <hyperlink ref="D98" r:id="rId97"/>
-    <hyperlink ref="D99" r:id="rId98"/>
-    <hyperlink ref="D100" r:id="rId99"/>
-    <hyperlink ref="D101" r:id="rId100"/>
-    <hyperlink ref="D102" r:id="rId101"/>
-    <hyperlink ref="D103" r:id="rId102"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="D29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="D30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="D32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="D33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="D34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="D35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="D36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="D37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="D39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="D41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="D47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="D48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="D49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="D52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/UtilityScripts/PICK_NRG/inbox_files/database.xlsx
+++ b/UtilityScripts/PICK_NRG/inbox_files/database.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMALYGIN\Downloads\Regression-master (5)\Regression-master\UtilityScripts\PICK_NRG\inbox_files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6F24A0-B76A-4929-9314-A0402F018350}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="3210" windowWidth="26505" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="132">
   <si>
     <t>ts</t>
   </si>
@@ -236,6 +230,69 @@
   </si>
   <si>
     <t>https://www.picknrg.com/en/us/lp/dm/brandma_7959</t>
+  </si>
+  <si>
+    <t>'60602</t>
+  </si>
+  <si>
+    <t>'60933</t>
+  </si>
+  <si>
+    <t>'15243</t>
+  </si>
+  <si>
+    <t>'19104</t>
+  </si>
+  <si>
+    <t>'17344</t>
+  </si>
+  <si>
+    <t>'16130</t>
+  </si>
+  <si>
+    <t>'15765</t>
+  </si>
+  <si>
+    <t>'18073</t>
+  </si>
+  <si>
+    <t>'02126</t>
+  </si>
+  <si>
+    <t>'01060</t>
+  </si>
+  <si>
+    <t>'20815</t>
+  </si>
+  <si>
+    <t>'21071</t>
+  </si>
+  <si>
+    <t>'21620</t>
+  </si>
+  <si>
+    <t>'08550</t>
+  </si>
+  <si>
+    <t>'08540</t>
+  </si>
+  <si>
+    <t>'08201</t>
+  </si>
+  <si>
+    <t>'07495</t>
+  </si>
+  <si>
+    <t>'43016</t>
+  </si>
+  <si>
+    <t>'44122</t>
+  </si>
+  <si>
+    <t>'43605</t>
+  </si>
+  <si>
+    <t>'45034</t>
   </si>
   <si>
     <t>ComEd</t>
@@ -358,8 +415,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,14 +492,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -489,7 +538,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -521,27 +570,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -573,24 +604,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -766,16 +779,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A52" sqref="A2:XFD52"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -798,7 +809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -811,17 +822,17 @@
       <c r="D2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E2">
-        <v>60602</v>
+      <c r="E2" t="s">
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -834,17 +845,17 @@
       <c r="D3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E3">
-        <v>60602</v>
+      <c r="E3" t="s">
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="G3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -857,17 +868,17 @@
       <c r="D4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E4">
-        <v>60933</v>
+      <c r="E4" t="s">
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -880,17 +891,17 @@
       <c r="D5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E5">
-        <v>60933</v>
+      <c r="E5" t="s">
+        <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="G5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -903,17 +914,17 @@
       <c r="D6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E6">
-        <v>15243</v>
+      <c r="E6" t="s">
+        <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="G6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -926,14 +937,14 @@
       <c r="D7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E7">
-        <v>15243</v>
+      <c r="E7" t="s">
+        <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -946,17 +957,17 @@
       <c r="D8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E8">
-        <v>19104</v>
+      <c r="E8" t="s">
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -969,17 +980,17 @@
       <c r="D9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E9">
-        <v>19104</v>
+      <c r="E9" t="s">
+        <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -992,17 +1003,17 @@
       <c r="D10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E10">
-        <v>17344</v>
+      <c r="E10" t="s">
+        <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1015,17 +1026,17 @@
       <c r="D11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E11">
-        <v>17344</v>
+      <c r="E11" t="s">
+        <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1038,17 +1049,17 @@
       <c r="D12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E12">
-        <v>16130</v>
+      <c r="E12" t="s">
+        <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="G12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1061,17 +1072,17 @@
       <c r="D13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E13">
-        <v>16130</v>
+      <c r="E13" t="s">
+        <v>77</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="G13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1084,17 +1095,17 @@
       <c r="D14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E14">
-        <v>15765</v>
+      <c r="E14" t="s">
+        <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1107,17 +1118,17 @@
       <c r="D15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E15">
-        <v>15765</v>
+      <c r="E15" t="s">
+        <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1130,17 +1141,17 @@
       <c r="D16" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E16">
-        <v>18073</v>
+      <c r="E16" t="s">
+        <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="G16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1153,17 +1164,17 @@
       <c r="D17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E17">
-        <v>18073</v>
+      <c r="E17" t="s">
+        <v>79</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="G17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1176,14 +1187,14 @@
       <c r="D18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E18">
-        <v>18073</v>
+      <c r="E18" t="s">
+        <v>79</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1196,17 +1207,17 @@
       <c r="D19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E19">
-        <v>15243</v>
+      <c r="E19" t="s">
+        <v>74</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="G19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1219,14 +1230,14 @@
       <c r="D20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E20">
-        <v>15243</v>
+      <c r="E20" t="s">
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1239,14 +1250,14 @@
       <c r="D21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E21">
-        <v>2126</v>
+      <c r="E21" t="s">
+        <v>80</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1259,14 +1270,14 @@
       <c r="D22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E22">
-        <v>1060</v>
+      <c r="E22" t="s">
+        <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1279,14 +1290,14 @@
       <c r="D23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E23">
-        <v>1060</v>
+      <c r="E23" t="s">
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1299,14 +1310,14 @@
       <c r="D24" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E24">
-        <v>1060</v>
+      <c r="E24" t="s">
+        <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1319,14 +1330,14 @@
       <c r="D25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E25">
-        <v>1060</v>
+      <c r="E25" t="s">
+        <v>81</v>
       </c>
       <c r="F25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1339,17 +1350,17 @@
       <c r="D26" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E26">
-        <v>20815</v>
+      <c r="E26" t="s">
+        <v>82</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="G26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1362,17 +1373,17 @@
       <c r="D27" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E27">
-        <v>20815</v>
+      <c r="E27" t="s">
+        <v>82</v>
       </c>
       <c r="F27" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="G27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1385,17 +1396,17 @@
       <c r="D28" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E28">
-        <v>21071</v>
+      <c r="E28" t="s">
+        <v>83</v>
       </c>
       <c r="F28" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="G28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1408,14 +1419,14 @@
       <c r="D29" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E29">
-        <v>21071</v>
+      <c r="E29" t="s">
+        <v>83</v>
       </c>
       <c r="F29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -1428,17 +1439,17 @@
       <c r="D30" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E30">
-        <v>21071</v>
+      <c r="E30" t="s">
+        <v>83</v>
       </c>
       <c r="F30" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="G30" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -1451,14 +1462,14 @@
       <c r="D31" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E31">
-        <v>21071</v>
+      <c r="E31" t="s">
+        <v>83</v>
       </c>
       <c r="F31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1471,14 +1482,14 @@
       <c r="D32" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E32">
-        <v>21620</v>
+      <c r="E32" t="s">
+        <v>84</v>
       </c>
       <c r="F32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1491,17 +1502,17 @@
       <c r="D33" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E33">
-        <v>8550</v>
+      <c r="E33" t="s">
+        <v>85</v>
       </c>
       <c r="F33" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="G33" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1514,14 +1525,14 @@
       <c r="D34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E34">
-        <v>8550</v>
+      <c r="E34" t="s">
+        <v>85</v>
       </c>
       <c r="F34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -1534,17 +1545,17 @@
       <c r="D35" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E35">
-        <v>8540</v>
+      <c r="E35" t="s">
+        <v>86</v>
       </c>
       <c r="F35" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="G35" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -1557,17 +1568,17 @@
       <c r="D36" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E36">
-        <v>8540</v>
+      <c r="E36" t="s">
+        <v>86</v>
       </c>
       <c r="F36" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="G36" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -1580,14 +1591,14 @@
       <c r="D37" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E37">
-        <v>8201</v>
+      <c r="E37" t="s">
+        <v>87</v>
       </c>
       <c r="F37" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -1600,14 +1611,14 @@
       <c r="D38" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E38">
-        <v>7495</v>
+      <c r="E38" t="s">
+        <v>88</v>
       </c>
       <c r="F38" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -1620,17 +1631,17 @@
       <c r="D39" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E39">
-        <v>43016</v>
+      <c r="E39" t="s">
+        <v>89</v>
       </c>
       <c r="F39" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="G39" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -1643,14 +1654,14 @@
       <c r="D40" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E40">
-        <v>43016</v>
+      <c r="E40" t="s">
+        <v>89</v>
       </c>
       <c r="F40" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -1663,17 +1674,17 @@
       <c r="D41" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E41">
-        <v>44122</v>
+      <c r="E41" t="s">
+        <v>90</v>
       </c>
       <c r="F41" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="G41" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -1686,14 +1697,14 @@
       <c r="D42" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E42">
-        <v>44122</v>
+      <c r="E42" t="s">
+        <v>90</v>
       </c>
       <c r="F42" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -1706,14 +1717,14 @@
       <c r="D43" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E43">
-        <v>44122</v>
+      <c r="E43" t="s">
+        <v>90</v>
       </c>
       <c r="F43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -1726,17 +1737,17 @@
       <c r="D44" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E44">
-        <v>44122</v>
+      <c r="E44" t="s">
+        <v>90</v>
       </c>
       <c r="F44" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="G44" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -1749,14 +1760,14 @@
       <c r="D45" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E45">
-        <v>44122</v>
+      <c r="E45" t="s">
+        <v>90</v>
       </c>
       <c r="F45" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -1769,14 +1780,14 @@
       <c r="D46" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E46">
-        <v>44122</v>
+      <c r="E46" t="s">
+        <v>90</v>
       </c>
       <c r="F46" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -1789,17 +1800,17 @@
       <c r="D47" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E47">
-        <v>44122</v>
+      <c r="E47" t="s">
+        <v>90</v>
       </c>
       <c r="F47" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="G47" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -1812,14 +1823,14 @@
       <c r="D48" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E48">
-        <v>44122</v>
+      <c r="E48" t="s">
+        <v>90</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -1832,14 +1843,14 @@
       <c r="D49" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E49">
-        <v>44122</v>
+      <c r="E49" t="s">
+        <v>90</v>
       </c>
       <c r="F49" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -1852,17 +1863,17 @@
       <c r="D50" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E50">
-        <v>43605</v>
+      <c r="E50" t="s">
+        <v>91</v>
       </c>
       <c r="F50" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="G50" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -1875,14 +1886,14 @@
       <c r="D51" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E51">
-        <v>43605</v>
+      <c r="E51" t="s">
+        <v>91</v>
       </c>
       <c r="F51" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -1895,66 +1906,66 @@
       <c r="D52" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E52">
-        <v>45034</v>
+      <c r="E52" t="s">
+        <v>92</v>
       </c>
       <c r="F52" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="D29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="D30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="D32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="D33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="D34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="D35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="D36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="D39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="D41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="D47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="D49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="D52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
